--- a/medicine/Psychotrope/Eduard_von_Grützner/Eduard_von_Grützner.xlsx
+++ b/medicine/Psychotrope/Eduard_von_Grützner/Eduard_von_Grützner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eduard_von_Gr%C3%BCtzner</t>
+          <t>Eduard_von_Grützner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard von Grützner, né le 26 mai 1846 à Groß-Karlowitz en province de Silésie, de nos jours Karłowice Wielkie et mort à Munich le 2 avril 1925 - ou 1878 selon le Bénézit (édit. de 1951, p. 464) - est un peintre allemand spécialisé dans les représentations de moines (souvent avec des chopes de bières). Il a aussi fréquemment représenté Falstaff.
 Selon le Bénézit (édition de 1951), c'était un fils de paysan destiné à entrer dans les ordres, mais l'architecte munichois Hirschberg lui conseilla de faire de la peinture ; il s'inspira pour ses œuvres de personnages du théâtre de Shakespeare.
-C'était l'un des artistes préférés d'Hitler, qui le comparait à Rembrandt[1].
+C'était l'un des artistes préférés d'Hitler, qui le comparait à Rembrandt.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eduard_von_Gr%C3%BCtzner</t>
+          <t>Eduard_von_Grützner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Éducation
-Eduard von Grützner naît en 1846 à Groß-Karlowitz près de Neisse. Il est le septième et le plus jeune enfant d'une famille de paysans modestes. Le prêtre local Fischer se rend souvent au domicile parental, car le père d'Eduard est marguillier. Il reconnaît très tôt le talent et le penchant d'Eduard pour la peinture. Il dessine sur tout ce qui lui tombe sous la main. L'intendant d'une propriété de campagne d'un comte du voisinage lui achète du papier et est heureux lorsque le garçon, en plus des innombrables représentations animales et humaines, dessine judicieusement un villageois avec ses caractéristiques. Le curé Fischer lui permet de fréquenter le lycée de Neisse et, avec l'aide de l'architecte Hirschberg, le fait venir à Munich en 1864 pour une formation artistique dans l'école privée de Hermann Dyck.
-Académie
-Cependant, la formation à l'école des arts et métiers de Hermann Dyck n'est que de courte durée. Au cours du même semestre, il est transféré dans la classe d'antiquité de l'Académie des beaux-arts sous la direction de Johann Georg Hiltensperger et Alexander Ströhuber (1814-1882), où les étudiants doivent se familiariser avec les idéaux de beauté de l'Antiquité. En 1865, Grützner entre dans la classe de peinture d'Hermann Anschütz à l'Académie. En outre, il demande conseil et suggestions à Karl von Piloty jusqu'à ce qu'il soit accepté dans sa classe en 1867. Grützner quitte l'Académie trois ans plus tard. En 1870, à Munich, il installe son propre atelier dans sa maison-jardin au numéro 18 de la Schwanthalerstraße (de) à Munich.
-Famille
-En 1874, Grützner épouse Barbara Link, qui lui donne deux ans plus tard une fille nommée Barbara, que Grützner appelle "Bärbele". En 1883, Grützner fait construire sa villa selon les plans de l'architecte Leonhard Romeis près du Maximilianeum sur le Praterbergl. En 1884, après dix ans de mariage, sa femme Barbara meurt. En 1888, Grützner se fiance avec Anna Wirthmann[2], qui peu après, donne naissance à leur fils Karl Eduard. Sa femme, de dix-sept ans sa cadette, l'ayant quitté pour un chanteur viennois ; Grüntzer divorce de sa femme en 1899. Grützner meurt à Munich le 2 avril 1925. Sa tombe se trouve dans la vieille partie du Waldfriedhof de Munich.
+          <t>Éducation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eduard von Grützner naît en 1846 à Groß-Karlowitz près de Neisse. Il est le septième et le plus jeune enfant d'une famille de paysans modestes. Le prêtre local Fischer se rend souvent au domicile parental, car le père d'Eduard est marguillier. Il reconnaît très tôt le talent et le penchant d'Eduard pour la peinture. Il dessine sur tout ce qui lui tombe sous la main. L'intendant d'une propriété de campagne d'un comte du voisinage lui achète du papier et est heureux lorsque le garçon, en plus des innombrables représentations animales et humaines, dessine judicieusement un villageois avec ses caractéristiques. Le curé Fischer lui permet de fréquenter le lycée de Neisse et, avec l'aide de l'architecte Hirschberg, le fait venir à Munich en 1864 pour une formation artistique dans l'école privée de Hermann Dyck.
 </t>
         </is>
       </c>
@@ -531,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eduard_von_Gr%C3%BCtzner</t>
+          <t>Eduard_von_Grützner</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +559,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Académie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cependant, la formation à l'école des arts et métiers de Hermann Dyck n'est que de courte durée. Au cours du même semestre, il est transféré dans la classe d'antiquité de l'Académie des beaux-arts sous la direction de Johann Georg Hiltensperger et Alexander Ströhuber (1814-1882), où les étudiants doivent se familiariser avec les idéaux de beauté de l'Antiquité. En 1865, Grützner entre dans la classe de peinture d'Hermann Anschütz à l'Académie. En outre, il demande conseil et suggestions à Karl von Piloty jusqu'à ce qu'il soit accepté dans sa classe en 1867. Grützner quitte l'Académie trois ans plus tard. En 1870, à Munich, il installe son propre atelier dans sa maison-jardin au numéro 18 de la Schwanthalerstraße (de) à Munich.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eduard_von_Grützner</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eduard_von_Gr%C3%BCtzner</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1874, Grützner épouse Barbara Link, qui lui donne deux ans plus tard une fille nommée Barbara, que Grützner appelle "Bärbele". En 1883, Grützner fait construire sa villa selon les plans de l'architecte Leonhard Romeis près du Maximilianeum sur le Praterbergl. En 1884, après dix ans de mariage, sa femme Barbara meurt. En 1888, Grützner se fiance avec Anna Wirthmann, qui peu après, donne naissance à leur fils Karl Eduard. Sa femme, de dix-sept ans sa cadette, l'ayant quitté pour un chanteur viennois ; Grüntzer divorce de sa femme en 1899. Grützner meurt à Munich le 2 avril 1925. Sa tombe se trouve dans la vieille partie du Waldfriedhof de Munich.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eduard_von_Grützner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eduard_von_Gr%C3%BCtzner</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cette liste a été dressée d'après le dictionnaire artistique Bénézit ; elle est utile mais à actualiser : où est de nos jours le tableau jadis au musée de Koenisberg ? S'il a survécu aux bombardements de Koenisberg ; est-il toujours dans un musée de Kaliningrad ?
 Un guerrier moyenâgeux trinquant avec un ermite (1878, Paris, musée d'Orsay ;
@@ -581,31 +670,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eduard_von_Gr%C3%BCtzner</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eduard_von_Grützner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eduard_von_Gr%C3%BCtzner</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Vente après-décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une vente aux enchères de ses collections et de ses tableaux peints par lui-même (du n° 510 au n° 529) eut lieu à Munich le 24 juin 1930 chez le commissaire-priseur Hugo Helbing (de).
 </t>
